--- a/URP/Post Processing.xlsx
+++ b/URP/Post Processing.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,52 +27,53 @@
     <t>CameraMotionBlur</t>
   </si>
   <si>
+    <t>UberPost</t>
+  </si>
+  <si>
+    <t>LensDistortion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChromaticAberration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vignette</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColorGrading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dithering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blit</t>
+  </si>
+  <si>
+    <t>PaniniProjection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bloom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GaussianDepthOfField/BokehDepthOfField</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UberPost</t>
-  </si>
-  <si>
-    <t>LensDistortion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChromaticAberration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vignette</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColorGrading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dithering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blit</t>
-  </si>
-  <si>
-    <t>PaniniProjection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bloom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +83,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -108,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -128,7 +139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -170,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +216,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,79 +428,79 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.125" customWidth="1"/>
-    <col min="2" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="3" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="18.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/URP/Post Processing.xlsx
+++ b/URP/Post Processing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>StopNaN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>GaussianDepthOfField/BokehDepthOfField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -498,6 +502,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
